--- a/tests/mapping.xlsx
+++ b/tests/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED7A654-E6A5-1C42-8822-F14677C66A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D65459-59F3-4045-B17B-CFBD9379129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2480" windowWidth="23400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="2321">
   <si>
     <t>Evolutionary Power Reactor (EPR), CH</t>
   </si>
@@ -5930,14 +5930,1078 @@
   </si>
   <si>
     <t>Solar CSP</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, AT</t>
+  </si>
+  <si>
+    <t>Biogas CHP</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, AU</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, BE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, BG</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CA-AB</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CA-NB</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CA-NS</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CA-ON</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CA-PE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CA-QC</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CH</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CL</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CY</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, CZ</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, DE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, DK</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, EE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, ES</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, FI</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, FR</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, GB</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, GR</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, HR</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, HU</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, ID</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, IE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, IR</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, IT</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, KR</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, LT</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, LU</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, LV</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, MX</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, MY</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, NL</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, NO</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, PE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, PL</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, PT</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, RO</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, RS</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, RoW</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, SE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, SI</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, SK</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, TH</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, TR</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, TW</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-HICC</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-MRO</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-NPCC</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-RFC</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-SERC</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-TRE</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, US-WECC</t>
+  </si>
+  <si>
+    <t>CHP,biogas, gas engine, renewable energy products, CH</t>
+  </si>
+  <si>
+    <t>CHP,diesel, 200kW electrical, SCR-NOx reduction, BR-North-eastern grid</t>
+  </si>
+  <si>
+    <t>Diesel CHP</t>
+  </si>
+  <si>
+    <t>CHP,diesel, 200kW electrical, SCR-NOx reduction, BR-Northern grid</t>
+  </si>
+  <si>
+    <t>CHP,diesel, 200kW electrical, SCR-NOx reduction, BR-South-eastern/Mid-western grid</t>
+  </si>
+  <si>
+    <t>CHP,diesel, 200kW electrical, SCR-NOx reduction, BR-Southern grid</t>
+  </si>
+  <si>
+    <t>CHP,diesel, 200kW electrical, SCR-NOx reduction, CH</t>
+  </si>
+  <si>
+    <t>CHP,diesel, 200kW electrical, SCR-NOx reduction, RoW</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, AT</t>
+  </si>
+  <si>
+    <t>Hard coal CHP</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, BG</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, CO</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, CZ</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, DE</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, DK</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, FI</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, IT</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, KR</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, NL</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, NO</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, PL</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, RU</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, RoW</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, SE</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, SK</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, TR</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, TW</t>
+  </si>
+  <si>
+    <t>CHP,hard coal, UA</t>
+  </si>
+  <si>
+    <t>CHP,lignite, AU</t>
+  </si>
+  <si>
+    <t>CHP,lignite, BA</t>
+  </si>
+  <si>
+    <t>CHP,lignite, BG</t>
+  </si>
+  <si>
+    <t>CHP,lignite, CZ</t>
+  </si>
+  <si>
+    <t>CHP,lignite, DE</t>
+  </si>
+  <si>
+    <t>CHP,lignite, GR</t>
+  </si>
+  <si>
+    <t>CHP,lignite, HU</t>
+  </si>
+  <si>
+    <t>CHP,lignite, PL</t>
+  </si>
+  <si>
+    <t>CHP,lignite, RO</t>
+  </si>
+  <si>
+    <t>CHP,lignite, RS</t>
+  </si>
+  <si>
+    <t>CHP,lignite, RU</t>
+  </si>
+  <si>
+    <t>CHP,lignite, RoW</t>
+  </si>
+  <si>
+    <t>CHP,lignite, SI</t>
+  </si>
+  <si>
+    <t>CHP,lignite, SK</t>
+  </si>
+  <si>
+    <t>CHP,lignite, TR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 160kW electrical, Jakobsberg, CH</t>
+  </si>
+  <si>
+    <t>Gas CHP</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 160kW electrical, Jakobsberg, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 160kW electrical, lambda=1, CH</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 160kW electrical, lambda=1, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 160kW electrical, lambda=1, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 1MW electrical, lean burn, CH</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 1MW electrical, lean burn, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 1MW electrical, lean burn, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 200kW electrical, lean burn, CH</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 200kW electrical, lean burn, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 500kW electrical, lean burn, CH</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 500kW electrical, lean burn, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 50kW electrical, lean burn, CH</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 50kW electrical, lean burn, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, 50kW electrical, lean burn, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, AT</t>
+  </si>
+  <si>
+    <t>Gas CC CHP</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, AU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, BE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, BG</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, DE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, DK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, ES</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, FI</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, GB</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, GR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, HR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, HU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, IR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, IT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, KR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, LT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, LU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, LV</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, MK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, NL</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, NO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, PL</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, PT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, RO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, RU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, SA</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, SK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, TR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-ASCC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-MRO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-NPCC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-RFC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-SERC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-TRE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, combined cycle power plant, 400MW electrical, US-WECC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, AR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, AT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, AU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, BA</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, BE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, BG</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-AB</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-BC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-MB</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-NB</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-NS</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-NT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-ON</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-PE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-QC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CA-SK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, CZ</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, DE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, DK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, EE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, ES</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, FI</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, FR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, GB</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, GR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, HR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, HU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, IE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, IR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, IT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, KR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, LT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, LU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, LV</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, MK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, NL</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, NO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, PE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, PL</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, PT</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, RO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, RS</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, RU</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, RoW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, SA</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, SE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, SI</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, SK</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, TR</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, TW</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, UA</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-ASCC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-MRO</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-NPCC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-RFC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-SERC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-TRE</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, conventional power plant, 100MW electrical, US-WECC</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, mini-plant 2KW electrical, CH</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, mini-plant 2KW electrical, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>CHP,natural gas, mini-plant 2KW electrical, RoW</t>
+  </si>
+  <si>
+    <t>CHP,oil, AT</t>
+  </si>
+  <si>
+    <t>Oil CHP</t>
+  </si>
+  <si>
+    <t>CHP,oil, AU</t>
+  </si>
+  <si>
+    <t>CHP,oil, BE</t>
+  </si>
+  <si>
+    <t>CHP,oil, BG</t>
+  </si>
+  <si>
+    <t>CHP,oil, CZ</t>
+  </si>
+  <si>
+    <t>CHP,oil, DE</t>
+  </si>
+  <si>
+    <t>CHP,oil, DK</t>
+  </si>
+  <si>
+    <t>CHP,oil, EE</t>
+  </si>
+  <si>
+    <t>CHP,oil, ES</t>
+  </si>
+  <si>
+    <t>CHP,oil, FI</t>
+  </si>
+  <si>
+    <t>CHP,oil, FR</t>
+  </si>
+  <si>
+    <t>CHP,oil, GB</t>
+  </si>
+  <si>
+    <t>CHP,oil, GR</t>
+  </si>
+  <si>
+    <t>CHP,oil, HR</t>
+  </si>
+  <si>
+    <t>CHP,oil, HU</t>
+  </si>
+  <si>
+    <t>CHP,oil, IE</t>
+  </si>
+  <si>
+    <t>CHP,oil, IT</t>
+  </si>
+  <si>
+    <t>CHP,oil, KR</t>
+  </si>
+  <si>
+    <t>CHP,oil, LT</t>
+  </si>
+  <si>
+    <t>CHP,oil, LU</t>
+  </si>
+  <si>
+    <t>CHP,oil, LV</t>
+  </si>
+  <si>
+    <t>CHP,oil, NL</t>
+  </si>
+  <si>
+    <t>CHP,oil, PL</t>
+  </si>
+  <si>
+    <t>CHP,oil, PT</t>
+  </si>
+  <si>
+    <t>CHP,oil, RO</t>
+  </si>
+  <si>
+    <t>CHP,oil, RS</t>
+  </si>
+  <si>
+    <t>CHP,oil, RU</t>
+  </si>
+  <si>
+    <t>CHP,oil, RoW</t>
+  </si>
+  <si>
+    <t>CHP,oil, SE</t>
+  </si>
+  <si>
+    <t>CHP,oil, SI</t>
+  </si>
+  <si>
+    <t>CHP,oil, SK</t>
+  </si>
+  <si>
+    <t>CHP,oil, TR</t>
+  </si>
+  <si>
+    <t>CHP,oil, TW</t>
+  </si>
+  <si>
+    <t>CHP,oil, UA</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-ASCC</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-HICC</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-MRO</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-NPCC</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-RFC</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-SERC</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-TRE</t>
+  </si>
+  <si>
+    <t>CHP,oil, US-WECC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 2000 kW, CH</t>
+  </si>
+  <si>
+    <t>Biomass CHP</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 2000 kW, state-of-the-art 2014, CH</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, BG</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, BR-North-eastern grid</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, BR-Northern grid</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, BR-South-eastern/Mid-western grid</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, BR-Southern grid</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, CH</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, CL</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, EE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, HR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, ID</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-AP</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-BR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-CT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-GA</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-GJ</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-HR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-KA</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-MH</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-MP</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-OR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-PB</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-RJ</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-TN</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-UP</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-UT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, IN-WB</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, LT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, LV</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, MX</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, MY</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, PE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, RU</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, RoW</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, TH</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, TR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, TW</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, TZ</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, UA</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, ZA</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, AT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, AU</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, BE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, BG</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CA-AB</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CA-BC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CA-NS</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CA-ON</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CA-PE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CA-QC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CH</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CL</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CN-GD</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CN-SH</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CY</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, CZ</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, DE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, DK</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, EE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, ES</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, FI</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, FR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, GB</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, GR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, HR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, HU</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, IE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, IT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, JP</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, KR</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, LU</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, LV</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, MT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, NL</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, NO</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, PL</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, PT</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, RO</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, RU</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, RoW</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, SE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, SI</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, SK</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-ASCC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-HICC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-MRO</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-NPCC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-RFC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-SERC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-TRE</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, US-WECC</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, ZA</t>
+  </si>
+  <si>
+    <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, renewable energy products, CH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5953,7 +7017,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5961,12 +7025,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6271,10 +7353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1931"/>
+  <dimension ref="A1:B2276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2238" workbookViewId="0">
+      <selection activeCell="A2276" sqref="A2276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21730,6 +22812,2766 @@
         <v>1937</v>
       </c>
     </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1932" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1933" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1934" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1935" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1936" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1937" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1938" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1939" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1940" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1941" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1942" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1943" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1944" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1945" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1946" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1947" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1948" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1949" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1950" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1951" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1952" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1953" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1954" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1955" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1956" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1957" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1957" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1958" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1958" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1959" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1960" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1961" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1962" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1963" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1964" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1965" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1966" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1967" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1968" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1969" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1970" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1971" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1972" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1973" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1974" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1975" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1976" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1977" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1978" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1979" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1980" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1981" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1982" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1983" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1984" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1985" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1986" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1987" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1988" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1989" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1990" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1991" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1992" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1993" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1994" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1995" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1996" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1997" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1998" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1999" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2000" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2001" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2002" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2003" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2004" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2005" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2006" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2007" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2008" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2009" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2010" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2011" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2012" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2013" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2014" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2015" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2016" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2017" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2018" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2019" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2020" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2021" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2022" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2023" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2024" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2025" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2026" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2027" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2028" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2029" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2030" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2031" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2032" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2033" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2034" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2035" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2036" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2037" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2038" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2039" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2040" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2041" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2042" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2043" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2044" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2045" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2046" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2047" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2048" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2049" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2050" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2051" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2052" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2053" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2054" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2055" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2056" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2057" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2058" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2059" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2060" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2061" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2062" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2063" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2064" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2065" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2066" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2067" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2068" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2069" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2070" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2071" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2072" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2073" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2074" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2075" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2076" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2077" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2078" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2079" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2080" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2081" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2082" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2083" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2084" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2085" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2086" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2087" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2088" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2089" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2090" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2091" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2092" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2093" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2094" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2095" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2096" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2097" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2098" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2099" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2100" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2101" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2102" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2103" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2104" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2105" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2106" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2107" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2108" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2109" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2110" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2111" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2112" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2113" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2114" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2115" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2116" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2117" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2118" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2119" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2120" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2121" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2122" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2123" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2124" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2125" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2126" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2127" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2128" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2129" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2130" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2131" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2132" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2133" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2134" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2135" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2136" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2137" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2138" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2139" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2140" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2141" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2142" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2143" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2144" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2145" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2146" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2147" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2148" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2149" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2150" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2151" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2152" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2153" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2154" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2155" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2156" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2157" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2158" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2159" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2160" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2161" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2162" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2163" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2164" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2165" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2166" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2167" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2168" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2169" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2170" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2171" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2172" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2173" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2174" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2175" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2176" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2177" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2178" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2179" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2180" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2181" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2182" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2183" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2184" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2185" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2186" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2187" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2188" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2189" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2190" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2191" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2192" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2193" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2194" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2195" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2196" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2197" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2198" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2199" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2200" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2201" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2202" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2203" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2204" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2205" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2206" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2207" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2208" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2209" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2210" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2211" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2212" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2213" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2214" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2215" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2216" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2217" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2218" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2219" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2220" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2221" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2222" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2223" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2224" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2225" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2226" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2227" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2228" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2229" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2230" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2231" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2232" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2233" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2234" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2235" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2236" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2237" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2238" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2239" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2240" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2241" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2242" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2243" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2244" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2245" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2246" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2247" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2248" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2249" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2250" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2251" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2252" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B2252" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2253" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B2253" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2254" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2254" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2255" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B2255" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2256" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2256" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2257" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B2257" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2258" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2258" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2259" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B2259" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2260" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2260" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2261" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B2261" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2262" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B2262" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2263" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B2263" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2264" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2264" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2265" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B2265" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2266" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B2266" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2267" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B2267" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2268" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B2268" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2269" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2270" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2271" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2272" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2273" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2274" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2275" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2276" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>2227</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1931" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/mapping.xlsx
+++ b/tests/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D65459-59F3-4045-B17B-CFBD9379129B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B87AF66-E72F-0142-AD5A-C6E7CA9A2339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2480" windowWidth="23400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1931</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="2321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4884" uniqueCount="2523">
   <si>
     <t>Evolutionary Power Reactor (EPR), CH</t>
   </si>
@@ -6986,6 +6999,612 @@
   </si>
   <si>
     <t>CHP,wood chips, 6667 kW, state-of-the-art 2014, renewable energy products, CH</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming of natural gas, 25 bar, RER</t>
+  </si>
+  <si>
+    <t>Gas ATR</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar, RER</t>
+  </si>
+  <si>
+    <t>Gas ATR + CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, from biomethane, 25 bar, CH</t>
+  </si>
+  <si>
+    <t>Biogas ATR</t>
+  </si>
+  <si>
+    <t>hydrogen production, auto-thermal reforming, from biomethane, with CCS (MDEA, 98% eff.), 25 bar, CH</t>
+  </si>
+  <si>
+    <t>Biogas ATR + CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 1 bar, from SOEC electrolysis, from grid electricity, CH</t>
+  </si>
+  <si>
+    <t>SOEC</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 1 bar, from SOEC electrolysis, with steam input, from grid electricity, CH</t>
+  </si>
+  <si>
+    <t>SOEC + steam</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 100 bar, from methane pyrolysis, RER</t>
+  </si>
+  <si>
+    <t>Pyrolysis</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 20 bar, from AEC electrolysis, from grid electricity, CH</t>
+  </si>
+  <si>
+    <t>AEC</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant, RER</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, with CCS, at gasification plant, RER</t>
+  </si>
+  <si>
+    <t>Biomass CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from heatpipe reformer gasification of woody biomass with CCS, at gasification plant, RER</t>
+  </si>
+  <si>
+    <t>Biomass (heatpipe) + CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from heatpipe reformer gasification of woody biomass, at gasification plant, RER</t>
+  </si>
+  <si>
+    <t>Biomass (heatpipe)</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 25 bar, from thermochemical water splitting, at solar tower, RER</t>
+  </si>
+  <si>
+    <t>Water splitting</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity, RER</t>
+  </si>
+  <si>
+    <t>PEM</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant, RER</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant, RER</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, BR</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, CO</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, IN</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, PE</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, RoW</t>
+  </si>
+  <si>
+    <t>hydrogen production, gaseous, petroleum refinery operation, ZA</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming of natural gas, 25 bar, CH</t>
+  </si>
+  <si>
+    <t>Gas SMR</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming of natural gas, with CCS (MDEA, 98% eff.), 25 bar, CH</t>
+  </si>
+  <si>
+    <t>Gas SMR + CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, 26 bar, CH</t>
+  </si>
+  <si>
+    <t>Biogas SMR</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam methane reforming, from biomethane, high and low temperature, with CCS (MDEA, 98% eff.), 26 bar, CH</t>
+  </si>
+  <si>
+    <t>Biogas SMR + CCS</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam reforming, RER</t>
+  </si>
+  <si>
+    <t>hydrogen production, steam reforming, RoW</t>
+  </si>
+  <si>
+    <t>biodiesel production, via Fischer-Tropsch, from forest product (non-residual), energy allocation, RER</t>
+  </si>
+  <si>
+    <t>Biodiesel</t>
+  </si>
+  <si>
+    <t>biodiesel production, via Fischer-Tropsch, from forest residues, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>biodiesel production, via transesterification, from algae, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>biodiesel production, via transesterification, from palm oil, energy allocation, ID</t>
+  </si>
+  <si>
+    <t>biodiesel production, via transesterification, from rapeseed oil, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>biodiesel production, via transesterification, from used cooking oil, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>biodiesel production, via transesterification, from used cooking oil, with carbon capture and storage, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>Biodiesel + CCS</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, from wood, with CCS, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, from wood, with CCS, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, methanol, fossil</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, with CCS, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, methanol, fossil + CCS</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from coal gasification, with CCS, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from electrolysis, CO2 from DAC, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, methanol, H2</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from electrolysis, CO2 from DAC, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from electrolysis, CO2 from cement plant, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, from methanol, hydrogen from electrolysis, CO2 from cement plant, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, CH</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, BR</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, CO</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, IN</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, PE</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, RoW</t>
+  </si>
+  <si>
+    <t>diesel production, low-sulfur, petroleum refinery operation, ZA</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, BR</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, CO</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, IN</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, PE</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, RoW</t>
+  </si>
+  <si>
+    <t>diesel production, petroleum refinery operation, ZA</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, from natural gas, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, FT, fossil</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, from natural gas, energy allocation, with carbon capture and storage, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, FT, fossil + CCS</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from coal gasification, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from coal gasification, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from coal gasification, with CCS, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from coal gasification, with CCS, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, FT, H2</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from electrolysis, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, FT, biomass</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Syn diesel, FT, biomass + CCS</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, with CCS, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production from grass, CH</t>
+  </si>
+  <si>
+    <t>ethanol, biomass</t>
+  </si>
+  <si>
+    <t>ethanol production from maize, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from maize, US</t>
+  </si>
+  <si>
+    <t>ethanol production from potatoes, CH</t>
+  </si>
+  <si>
+    <t>ethanol production from potatoes, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from rye, RER</t>
+  </si>
+  <si>
+    <t>ethanol production from rye, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from sugar beet molasses, CH</t>
+  </si>
+  <si>
+    <t>ethanol production from sugar beet, CH</t>
+  </si>
+  <si>
+    <t>ethanol production from sugar beet, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from sweet sorghum, CN</t>
+  </si>
+  <si>
+    <t>ethanol production from sweet sorghum, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from whey, CH</t>
+  </si>
+  <si>
+    <t>ethanol production from whey, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from wood, CH</t>
+  </si>
+  <si>
+    <t>ethanol production from wood, RoW</t>
+  </si>
+  <si>
+    <t>ethanol production from wood, SE</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn starch, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn stover, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn stover, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn stover, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, with carbon capture and reuse, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol, biomass + CCS</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, with carbon capture and reuse, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, with carbon capture and reuse, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, with carbon capture and storage, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, with carbon capture and storage, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from corn, with carbon capture and storage, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from eucalyptus, ES</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from eucalyptus, with carbon capture and storage, ES</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forage sorghum, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forage sorghum, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forage sorghum, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest product (non-residual), energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest residue, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest residue, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest residue, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest residue, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest residue, with carbon capture and storage, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from forest residues, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from grain sorghum, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from grain sorghum, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from grain sorghum, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from miscanthus, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from miscanthus, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from miscanthus, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from miscanthus, with carbon capture and storage, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from miscanthus, with carbon capture and storage, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from miscanthus, with carbon capture and storage, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from poplar, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from poplar, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from poplar, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from poplar, with carbon capture and storage, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarbeet, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarbeet, with carbon capture and storage, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane straw, economic allocation, BR</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane straw, energy allocation, BR</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane straw, system expansion, BR</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane, with carbon capture and storage, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane, with carbon capture and storage, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sugarcane, with carbon capture and storage, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sweet sorghum, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sweet sorghum, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from sweet sorghum, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from switchgrass, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from switchgrass, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from switchgrass, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from switchgrass, with carbon capture and storage, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from switchgrass, with carbon capture and storage, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from switchgrass, with carbon capture and storage, system expansion, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from wheat grains, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from wheat straw, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from willow, economic allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from willow, energy allocation, US</t>
+  </si>
+  <si>
+    <t>ethanol production, via fermentation, from willow, system expansion, US</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, from wood, with CCS, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Gasoline, methanol, biomass + CCS</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, from wood, with CCS, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Gasoline, methanol, coal</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, with CCS, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Gasoline, methanol, coal + CCS</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from coal gasification, with CCS, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from electrolysis, CO2 from DAC, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>Gasoline, methanol, H2</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from electrolysis, CO2 from DAC, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from electrolysis, CO2 from cement plant, economic allocation, RER</t>
+  </si>
+  <si>
+    <t>gasoline production, from methanol, hydrogen from electrolysis, CO2 from cement plant, energy allocation, RER</t>
+  </si>
+  <si>
+    <t>methanol production, GLO</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>methanol production, from synthetic gas, CH</t>
+  </si>
+  <si>
+    <t>methanol production, from synthetic gas, RoW</t>
   </si>
 </sst>
 </file>
@@ -7353,15 +7972,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2276"/>
+  <dimension ref="A1:B2442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2238" workbookViewId="0">
-      <selection activeCell="A2276" sqref="A2276"/>
+    <sheetView tabSelected="1" topLeftCell="A2287" workbookViewId="0">
+      <selection activeCell="A2308" sqref="A2308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.83203125" customWidth="1"/>
+    <col min="1" max="1" width="106.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -25572,6 +26191,1334 @@
         <v>2227</v>
       </c>
     </row>
+    <row r="2277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2277" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2278" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2279" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2280" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2281" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2282" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2283" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2284" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2285" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2286" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2287" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2288" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2289" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2290" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2291" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2292" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2293" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2294" s="1" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2295" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2296" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2297" s="1" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2298" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2299" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2300" s="1" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2301" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2302" s="1" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2303" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2304" s="1" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2305" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2306" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2307" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2308" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2309" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2310" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2311" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2312" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2313" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2314" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2315" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2316" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2317" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2318" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2319" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2320" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2321" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2322" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2323" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2324" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2325" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2326" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2327" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2328" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2329" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2330" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2331" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2332" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2333" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2334" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2335" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2336" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2337" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2338" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2339" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2340" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2341" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2342" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2343" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2344" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2345" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2346" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2347" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2348" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2349" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2350" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2351" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2352" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2353" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2354" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2355" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2356" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2357" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2358" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2359" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2360" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2361" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2362" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2363" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2364" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2365" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2366" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2367" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2368" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2369" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2370" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2371" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2372" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2373" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2374" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2375" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2376" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2377" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2378" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2379" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2380" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2381" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2382" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2383" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2384" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2385" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2386" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2387" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2388" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2389" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2390" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2391" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2392" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2393" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2394" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2395" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2396" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2397" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2398" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2399" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2400" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2401" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2402" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2403" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2404" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2405" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2406" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2407" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2408" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2409" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2410" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2411" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2412" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2413" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2414" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2415" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2416" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2417" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2418" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2419" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2420" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2421" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2422" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2423" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2424" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2425" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2426" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2427" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2428" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2429" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2430" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2431" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2432" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2433" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2434" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2435" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2436" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2437" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2438" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2439" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2440" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2441" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2442" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>2520</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1931" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
